--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1025,10 +1037,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1072,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1118,28 +1130,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1297,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1390,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1545,10 +1557,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1592,28 +1604,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1638,28 +1650,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1776,10 +1788,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1823,28 +1835,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1869,28 +1881,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1978,10 +1990,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2025,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2071,28 +2083,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2267,10 +2279,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2314,28 +2326,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2360,28 +2372,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2469,10 +2481,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2516,28 +2528,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2562,28 +2574,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2642,10 +2654,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2689,28 +2701,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2735,28 +2747,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2873,10 +2885,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2920,28 +2932,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2966,28 +2978,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3133,10 +3145,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3180,28 +3192,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3226,28 +3238,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3335,10 +3347,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3382,28 +3394,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3428,28 +3440,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3566,10 +3578,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3613,28 +3625,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3659,28 +3671,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3739,10 +3751,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3786,28 +3798,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3832,28 +3844,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3999,10 +4011,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4046,28 +4058,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4092,28 +4104,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4288,10 +4300,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4335,28 +4347,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4381,28 +4393,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4519,10 +4531,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4566,28 +4578,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4612,28 +4624,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4721,10 +4733,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4768,28 +4780,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4814,28 +4826,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4981,10 +4993,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5028,28 +5040,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5074,28 +5086,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5212,10 +5224,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5259,28 +5271,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5305,28 +5317,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5385,10 +5397,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5432,28 +5444,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5478,28 +5490,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5558,10 +5570,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5605,28 +5617,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5651,28 +5663,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5818,10 +5830,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5865,28 +5877,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5911,28 +5923,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5991,10 +6003,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6038,28 +6050,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6084,28 +6096,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6193,10 +6205,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6240,28 +6252,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6286,28 +6298,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6366,10 +6378,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6413,28 +6425,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6459,28 +6471,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6539,10 +6551,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6586,28 +6598,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6632,28 +6644,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6741,10 +6753,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6788,28 +6800,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6834,28 +6846,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6914,10 +6926,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="2" t="s">
+      <c r="J235" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6961,28 +6973,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="2">
+      <c r="A237" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="2">
+      <c r="C237" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7007,28 +7019,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="2">
+      <c r="C239" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="2">
+      <c r="D239" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="2">
+      <c r="I239" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7116,10 +7128,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7163,28 +7175,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7209,28 +7221,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7318,10 +7330,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7365,28 +7377,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7411,28 +7423,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7491,10 +7503,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7538,28 +7550,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7584,28 +7596,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7676,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7723,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7769,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7837,10 +7849,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7884,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7930,28 +7942,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8010,10 +8022,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8057,28 +8069,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8103,28 +8115,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8183,10 +8195,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="2" t="s">
+      <c r="J279" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8230,28 +8242,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="2">
+      <c r="A281" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="2">
+      <c r="C281" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8276,28 +8288,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="2">
+      <c r="C283" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="2">
+      <c r="D283" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="2">
+      <c r="I283" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8356,10 +8368,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="2" t="s">
+      <c r="J285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8403,28 +8415,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="2">
+      <c r="A287" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="2">
+      <c r="B287" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="2">
+      <c r="C287" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="2">
+      <c r="E287" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="2">
+      <c r="F287" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="2">
+      <c r="G287" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="2">
+      <c r="H287" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8449,28 +8461,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="2">
+      <c r="C289" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="2">
+      <c r="D289" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="2">
+      <c r="I289" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8529,10 +8541,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8576,28 +8588,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="2">
+      <c r="A293" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="2">
+      <c r="C293" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8622,28 +8634,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="2">
+      <c r="C295" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="2">
+      <c r="D295" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="2">
+      <c r="I295" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8702,10 +8714,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="2" t="s">
+      <c r="J297" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8749,28 +8761,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="2">
+      <c r="A299" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="2">
+      <c r="C299" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8795,28 +8807,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="2">
+      <c r="B301" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="2">
+      <c r="C301" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="2">
+      <c r="D301" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="2">
+      <c r="E301" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="2">
+      <c r="F301" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="2">
+      <c r="G301" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="2">
+      <c r="H301" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="2">
+      <c r="I301" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8875,10 +8887,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8922,28 +8934,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8968,28 +8980,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9048,10 +9060,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="2" t="s">
+      <c r="J309" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9095,28 +9107,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="2">
+      <c r="A311" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="2">
+      <c r="C311" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9141,28 +9153,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="2">
+      <c r="C313" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="2">
+      <c r="D313" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="2">
+      <c r="I313" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9221,10 +9233,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="2" t="s">
+      <c r="J315" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9268,28 +9280,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="2">
+      <c r="A317" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="2">
+      <c r="B317" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="2">
+      <c r="C317" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="2">
+      <c r="E317" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="2">
+      <c r="F317" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="2">
+      <c r="G317" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="2">
+      <c r="H317" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9314,28 +9326,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="2">
+      <c r="C319" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="2">
+      <c r="D319" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="2">
+      <c r="I319" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9394,10 +9406,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9441,28 +9453,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9487,28 +9499,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9567,10 +9579,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9614,28 +9626,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9660,28 +9672,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9740,10 +9752,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="2" t="s">
+      <c r="J333" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9787,28 +9799,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="2">
+      <c r="A335" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="2">
+      <c r="C335" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9833,28 +9845,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="2">
+      <c r="C337" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="2">
+      <c r="D337" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="2">
+      <c r="I337" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9913,10 +9925,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="2" t="s">
+      <c r="J339" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9960,28 +9972,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="2">
+      <c r="A341" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="2">
+      <c r="C341" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10006,28 +10018,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="2">
+      <c r="C343" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="2">
+      <c r="D343" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="2">
+      <c r="I343" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10086,10 +10098,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="2" t="s">
+      <c r="J345" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10133,28 +10145,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="2">
+      <c r="A347" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="2">
+      <c r="C347" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10179,28 +10191,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="2">
+      <c r="C349" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="2">
+      <c r="D349" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="2">
+      <c r="I349" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10259,10 +10271,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10992" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -373,10 +421,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="J8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -420,28 +468,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="4">
+      <c r="A10" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="4">
+      <c r="C10" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="4">
+      <c r="F10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -466,28 +514,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -575,10 +623,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="4" t="s">
+      <c r="J15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -622,28 +670,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="4">
+      <c r="A17" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="B17" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="4">
+      <c r="C17" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="4">
+      <c r="E17" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="4">
+      <c r="F17" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -668,28 +716,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="4">
+      <c r="B19" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="4">
+      <c r="E19" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="4">
+      <c r="F19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="4">
+      <c r="G19" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="4">
+      <c r="H19" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="4">
+      <c r="I19" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -835,10 +883,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="4">
+      <c r="A26" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="4">
+      <c r="C26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -928,28 +976,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="4">
+      <c r="I28" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1037,10 +1085,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1084,28 +1132,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="4">
+      <c r="A33" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="4">
+      <c r="C33" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1130,28 +1178,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="4">
+      <c r="I35" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1297,10 +1345,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="J40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1344,28 +1392,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="4">
+      <c r="C42" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1390,28 +1438,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="4">
+      <c r="I44" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1557,10 +1605,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="4" t="s">
+      <c r="J49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1604,28 +1652,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="4">
+      <c r="A51" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="4">
+      <c r="C51" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="4">
+      <c r="G51" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="4">
+      <c r="H51" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1650,28 +1698,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="4">
+      <c r="B53" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="4">
+      <c r="C53" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="4">
+      <c r="D53" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="4">
+      <c r="E53" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="4">
+      <c r="F53" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="4">
+      <c r="G53" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="4">
+      <c r="H53" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="4">
+      <c r="I53" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1788,10 +1836,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1835,28 +1883,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="4">
+      <c r="A59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="4">
+      <c r="C59" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1881,28 +1929,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="4">
+      <c r="I61" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1990,10 +2038,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2037,28 +2085,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="C66" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2083,28 +2131,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2279,10 +2327,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="J74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2326,28 +2374,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="4">
+      <c r="C76" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2372,28 +2420,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2481,10 +2529,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="J81" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2528,28 +2576,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="4">
+      <c r="A83" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="4">
+      <c r="C83" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2574,28 +2622,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="4">
+      <c r="I85" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2654,10 +2702,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="J87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2701,28 +2749,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="4">
+      <c r="C89" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2747,28 +2795,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2885,10 +2933,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="J95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2932,28 +2980,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="4">
+      <c r="C97" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2978,28 +3026,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3145,10 +3193,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="4" t="s">
+      <c r="J104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3192,28 +3240,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="4">
+      <c r="A106" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="4">
+      <c r="C106" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3238,28 +3286,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="4">
+      <c r="C108" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="4">
+      <c r="D108" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="4">
+      <c r="I108" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3347,10 +3395,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="4" t="s">
+      <c r="J111" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3394,28 +3442,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="4">
+      <c r="A113" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="4">
+      <c r="C113" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3440,28 +3488,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="4">
+      <c r="B115" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="4">
+      <c r="C115" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="4">
+      <c r="D115" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="4">
+      <c r="E115" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="4">
+      <c r="F115" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="4">
+      <c r="G115" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="4">
+      <c r="H115" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="4">
+      <c r="I115" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3578,10 +3626,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="4" t="s">
+      <c r="J119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3625,28 +3673,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="4">
+      <c r="A121" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="4">
+      <c r="C121" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3671,28 +3719,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="4">
+      <c r="C123" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="4">
+      <c r="D123" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="4">
+      <c r="I123" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3751,10 +3799,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="4" t="s">
+      <c r="J125" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3798,28 +3846,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="4">
+      <c r="A127" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="4">
+      <c r="B127" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="4">
+      <c r="C127" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="4">
+      <c r="E127" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="4">
+      <c r="F127" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="4">
+      <c r="G127" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="4">
+      <c r="H127" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3844,28 +3892,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="4">
+      <c r="B129" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="4">
+      <c r="C129" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="4">
+      <c r="D129" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="4">
+      <c r="E129" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="4">
+      <c r="F129" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="4">
+      <c r="G129" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="4">
+      <c r="H129" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="4">
+      <c r="I129" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4011,10 +4059,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="4" t="s">
+      <c r="J134" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4058,28 +4106,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="4">
+      <c r="A136" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="4">
+      <c r="C136" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4104,28 +4152,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="4">
+      <c r="I138" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4300,10 +4348,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4347,28 +4395,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4393,28 +4441,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4531,10 +4579,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="4" t="s">
+      <c r="J152" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4578,28 +4626,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="4">
+      <c r="A154" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="4">
+      <c r="C154" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4624,28 +4672,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="4">
+      <c r="C156" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="4">
+      <c r="D156" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="4">
+      <c r="I156" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4733,10 +4781,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="4" t="s">
+      <c r="J159" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4780,28 +4828,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="4">
+      <c r="A161" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="4">
+      <c r="C161" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4826,28 +4874,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="4">
+      <c r="C163" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="4">
+      <c r="D163" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="4">
+      <c r="I163" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4993,10 +5041,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5040,28 +5088,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5086,28 +5134,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5224,10 +5272,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="4" t="s">
+      <c r="J176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5271,28 +5319,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="4">
+      <c r="C178" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5317,28 +5365,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5397,10 +5445,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5444,28 +5492,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5490,28 +5538,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5570,10 +5618,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5617,28 +5665,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5663,28 +5711,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5830,10 +5878,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="4" t="s">
+      <c r="J197" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5877,28 +5925,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="4">
+      <c r="A199" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="4">
+      <c r="C199" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5923,28 +5971,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="4">
+      <c r="B201" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="4">
+      <c r="C201" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="4">
+      <c r="D201" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="4">
+      <c r="E201" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="4">
+      <c r="F201" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="4">
+      <c r="G201" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="4">
+      <c r="H201" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="4">
+      <c r="I201" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6003,10 +6051,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="4" t="s">
+      <c r="J203" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6050,28 +6098,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="4">
+      <c r="C205" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6096,28 +6144,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="4">
+      <c r="C207" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="4">
+      <c r="D207" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="4">
+      <c r="I207" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6205,10 +6253,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6252,28 +6300,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6298,28 +6346,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6378,10 +6426,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="4" t="s">
+      <c r="J216" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6425,28 +6473,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="4">
+      <c r="C218" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6471,28 +6519,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="4">
+      <c r="C220" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="4">
+      <c r="D220" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="4">
+      <c r="I220" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6551,10 +6599,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="4" t="s">
+      <c r="J222" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6598,28 +6646,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="4">
+      <c r="A224" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="4">
+      <c r="C224" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6644,28 +6692,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="4">
+      <c r="C226" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="4">
+      <c r="D226" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="4">
+      <c r="I226" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6753,10 +6801,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="4" t="s">
+      <c r="J229" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6800,28 +6848,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="4">
+      <c r="A231" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="4">
+      <c r="B231" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="4">
+      <c r="C231" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="4">
+      <c r="E231" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="4">
+      <c r="F231" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="4">
+      <c r="G231" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="4">
+      <c r="H231" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6846,28 +6894,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="4">
+      <c r="C233" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="4">
+      <c r="D233" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="4">
+      <c r="I233" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6926,10 +6974,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="4" t="s">
+      <c r="J235" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -6973,28 +7021,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="4">
+      <c r="A237" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="4">
+      <c r="C237" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7019,28 +7067,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="4">
+      <c r="C239" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="4">
+      <c r="D239" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="4">
+      <c r="I239" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7128,10 +7176,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="4" t="s">
+      <c r="J242" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7175,28 +7223,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="4">
+      <c r="A244" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="4">
+      <c r="C244" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7221,28 +7269,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="4">
+      <c r="B246" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="4">
+      <c r="C246" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="4">
+      <c r="D246" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="4">
+      <c r="E246" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="4">
+      <c r="F246" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="4">
+      <c r="G246" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="4">
+      <c r="H246" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="4">
+      <c r="I246" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7330,10 +7378,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="4" t="s">
+      <c r="J249" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7377,28 +7425,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="4">
+      <c r="A251" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="4">
+      <c r="C251" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7423,28 +7471,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="4">
+      <c r="B253" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="4">
+      <c r="C253" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="4">
+      <c r="D253" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="4">
+      <c r="G253" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="4">
+      <c r="H253" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="4">
+      <c r="I253" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7503,10 +7551,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="4" t="s">
+      <c r="J255" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7550,28 +7598,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="4">
+      <c r="A257" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="4">
+      <c r="C257" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7596,28 +7644,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="4">
+      <c r="C259" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="4">
+      <c r="D259" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="4">
+      <c r="I259" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7676,10 +7724,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="4" t="s">
+      <c r="J261" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7723,28 +7771,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="4">
+      <c r="A263" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="4">
+      <c r="B263" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="4">
+      <c r="C263" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="4">
+      <c r="E263" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="4">
+      <c r="F263" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="4">
+      <c r="G263" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="4">
+      <c r="H263" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7769,28 +7817,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="4">
+      <c r="C265" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="4">
+      <c r="D265" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="4">
+      <c r="I265" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7849,10 +7897,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="4" t="s">
+      <c r="J267" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7896,28 +7944,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="4">
+      <c r="A269" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="4">
+      <c r="C269" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="4">
+      <c r="G269" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="4">
+      <c r="H269" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7942,28 +7990,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="4">
+      <c r="C271" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="4">
+      <c r="D271" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="4">
+      <c r="I271" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8022,10 +8070,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="4" t="s">
+      <c r="J273" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8069,28 +8117,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="4">
+      <c r="A275" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="4">
+      <c r="B275" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="4">
+      <c r="C275" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="4">
+      <c r="E275" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="4">
+      <c r="F275" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="4">
+      <c r="G275" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="4">
+      <c r="H275" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8115,28 +8163,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="4">
+      <c r="B277" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="4">
+      <c r="C277" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="4">
+      <c r="D277" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="4">
+      <c r="E277" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="4">
+      <c r="F277" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="4">
+      <c r="G277" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="4">
+      <c r="H277" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="4">
+      <c r="I277" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8195,10 +8243,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="4" t="s">
+      <c r="J279" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8242,28 +8290,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="4">
+      <c r="A281" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="4">
+      <c r="B281" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="4">
+      <c r="C281" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="4">
+      <c r="E281" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="4">
+      <c r="F281" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="4">
+      <c r="G281" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="4">
+      <c r="H281" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8288,28 +8336,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="4">
+      <c r="B283" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="4">
+      <c r="C283" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="4">
+      <c r="D283" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="4">
+      <c r="E283" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="4">
+      <c r="F283" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="4">
+      <c r="G283" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="4">
+      <c r="H283" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="4">
+      <c r="I283" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8368,10 +8416,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="4" t="s">
+      <c r="J285" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8415,28 +8463,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="4">
+      <c r="A287" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="4">
+      <c r="B287" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="4">
+      <c r="C287" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="4">
+      <c r="E287" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="4">
+      <c r="F287" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="4">
+      <c r="G287" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="4">
+      <c r="H287" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8461,28 +8509,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="4">
+      <c r="B289" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="4">
+      <c r="C289" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="4">
+      <c r="D289" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="4">
+      <c r="E289" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="4">
+      <c r="F289" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="4">
+      <c r="G289" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="4">
+      <c r="H289" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="4">
+      <c r="I289" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8541,10 +8589,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="4" t="s">
+      <c r="J291" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8588,28 +8636,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="4">
+      <c r="A293" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="4">
+      <c r="B293" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="4">
+      <c r="C293" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="4">
+      <c r="E293" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="4">
+      <c r="F293" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="4">
+      <c r="G293" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="4">
+      <c r="H293" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8634,28 +8682,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="4">
+      <c r="B295" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="4">
+      <c r="C295" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="4">
+      <c r="D295" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="4">
+      <c r="E295" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="4">
+      <c r="F295" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="4">
+      <c r="G295" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="4">
+      <c r="H295" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="4">
+      <c r="I295" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8714,10 +8762,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="4" t="s">
+      <c r="J297" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8761,28 +8809,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="4">
+      <c r="A299" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="4">
+      <c r="B299" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="4">
+      <c r="C299" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="4">
+      <c r="E299" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="4">
+      <c r="F299" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="4">
+      <c r="G299" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="4">
+      <c r="H299" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8807,28 +8855,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="4">
+      <c r="B301" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="4">
+      <c r="C301" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="4">
+      <c r="D301" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="4">
+      <c r="E301" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="4">
+      <c r="F301" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="4">
+      <c r="G301" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="4">
+      <c r="H301" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="4">
+      <c r="I301" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8887,10 +8935,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="4" t="s">
+      <c r="J303" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8934,28 +8982,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="4">
+      <c r="A305" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="4">
+      <c r="B305" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="4">
+      <c r="C305" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="4">
+      <c r="E305" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="4">
+      <c r="F305" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="4">
+      <c r="G305" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="4">
+      <c r="H305" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8980,28 +9028,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="4">
+      <c r="B307" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="4">
+      <c r="C307" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="4">
+      <c r="D307" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="4">
+      <c r="E307" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="4">
+      <c r="F307" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="4">
+      <c r="G307" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="4">
+      <c r="H307" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="4">
+      <c r="I307" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9060,10 +9108,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="4" t="s">
+      <c r="J309" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9107,28 +9155,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="4">
+      <c r="A311" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="4">
+      <c r="B311" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="4">
+      <c r="C311" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="4">
+      <c r="E311" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="4">
+      <c r="F311" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="4">
+      <c r="G311" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="4">
+      <c r="H311" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9153,28 +9201,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="4">
+      <c r="C313" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="4">
+      <c r="D313" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="4">
+      <c r="I313" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9233,10 +9281,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="4" t="s">
+      <c r="J315" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9280,28 +9328,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="4">
+      <c r="A317" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="4">
+      <c r="B317" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="4">
+      <c r="C317" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="4">
+      <c r="E317" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="4">
+      <c r="F317" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="4">
+      <c r="G317" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="4">
+      <c r="H317" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9326,28 +9374,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="4">
+      <c r="C319" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="4">
+      <c r="D319" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="4">
+      <c r="I319" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9406,10 +9454,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="4" t="s">
+      <c r="J321" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9453,28 +9501,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="4">
+      <c r="A323" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="4">
+      <c r="B323" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="4">
+      <c r="C323" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="4">
+      <c r="E323" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="4">
+      <c r="F323" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="4">
+      <c r="G323" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="4">
+      <c r="H323" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9499,28 +9547,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="4">
+      <c r="C325" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="4">
+      <c r="D325" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="4">
+      <c r="I325" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9579,10 +9627,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="4" t="s">
+      <c r="J327" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9626,28 +9674,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="4">
+      <c r="A329" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="4">
+      <c r="B329" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="4">
+      <c r="C329" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="4">
+      <c r="E329" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="4">
+      <c r="F329" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="4">
+      <c r="G329" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="4">
+      <c r="H329" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9672,28 +9720,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="4">
+      <c r="C331" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="4">
+      <c r="D331" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="4">
+      <c r="I331" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9752,10 +9800,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="4" t="s">
+      <c r="J333" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9799,28 +9847,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="4">
+      <c r="A335" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="4">
+      <c r="B335" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="4">
+      <c r="C335" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="4">
+      <c r="E335" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="4">
+      <c r="F335" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="4">
+      <c r="G335" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="4">
+      <c r="H335" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9845,28 +9893,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="4">
+      <c r="C337" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="4">
+      <c r="D337" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="4">
+      <c r="I337" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9925,10 +9973,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="4" t="s">
+      <c r="J339" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9972,28 +10020,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="4">
+      <c r="A341" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="4">
+      <c r="B341" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="4">
+      <c r="C341" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="4">
+      <c r="E341" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="4">
+      <c r="F341" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="4">
+      <c r="G341" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="4">
+      <c r="H341" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10018,28 +10066,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="4">
+      <c r="B343" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="4">
+      <c r="C343" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="4">
+      <c r="D343" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="4">
+      <c r="E343" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="4">
+      <c r="F343" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="4">
+      <c r="G343" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="4">
+      <c r="H343" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="4">
+      <c r="I343" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10098,10 +10146,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="4" t="s">
+      <c r="J345" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10145,28 +10193,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="4">
+      <c r="A347" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="4">
+      <c r="B347" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="4">
+      <c r="C347" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="4">
+      <c r="E347" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="4">
+      <c r="F347" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="4">
+      <c r="G347" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="4">
+      <c r="H347" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10191,28 +10239,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="4">
+      <c r="B349" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="4">
+      <c r="C349" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="4">
+      <c r="D349" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="4">
+      <c r="E349" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="4">
+      <c r="F349" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="4">
+      <c r="G349" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="4">
+      <c r="H349" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="4">
+      <c r="I349" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10271,10 +10319,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="4" t="s">
+      <c r="J351" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c105_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10992" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13740" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -421,10 +439,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -468,28 +486,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="12">
+      <c r="A10" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="12">
+      <c r="B10" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="12">
+      <c r="C10" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="12">
+      <c r="E10" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="12">
+      <c r="F10" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="12">
+      <c r="H10" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -514,28 +532,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="12">
+      <c r="I12" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -623,10 +641,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="12" t="s">
+      <c r="J15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -670,28 +688,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="12">
+      <c r="A17" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="12">
+      <c r="C17" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="12">
+      <c r="F17" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="12">
+      <c r="H17" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -716,28 +734,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="12">
+      <c r="B19" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="12">
+      <c r="C19" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="12">
+      <c r="F19" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="12">
+      <c r="H19" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="12">
+      <c r="I19" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -883,10 +901,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="J24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -930,28 +948,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="12">
+      <c r="A26" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="12">
+      <c r="C26" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -976,28 +994,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="12">
+      <c r="I28" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1085,10 +1103,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="12" t="s">
+      <c r="J31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1132,28 +1150,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="12">
+      <c r="C33" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1178,28 +1196,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1345,10 +1363,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="12" t="s">
+      <c r="J40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1392,28 +1410,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="12">
+      <c r="A42" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="12">
+      <c r="C42" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1438,28 +1456,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="12">
+      <c r="I44" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1605,10 +1623,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="12" t="s">
+      <c r="J49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1652,28 +1670,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="12">
+      <c r="A51" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="12">
+      <c r="C51" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E51" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F51" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1698,28 +1716,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="12">
+      <c r="B53" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="12">
+      <c r="C53" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="12">
+      <c r="D53" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="12">
+      <c r="E53" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="12">
+      <c r="F53" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="12">
+      <c r="G53" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="12">
+      <c r="H53" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="12">
+      <c r="I53" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1854,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1883,28 +1901,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="12">
+      <c r="A59" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="12">
+      <c r="C59" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1947,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2038,10 +2056,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2085,28 +2103,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="12">
+      <c r="C66" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2131,28 +2149,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2327,10 +2345,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="12" t="s">
+      <c r="J74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2374,28 +2392,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="12">
+      <c r="C76" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2420,28 +2438,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2529,10 +2547,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2576,28 +2594,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="12">
+      <c r="A83" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="12">
+      <c r="C83" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2622,28 +2640,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="12">
+      <c r="I85" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2702,10 +2720,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="J87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2749,28 +2767,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="12">
+      <c r="C89" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2795,28 +2813,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2933,10 +2951,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="J95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2980,28 +2998,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="12">
+      <c r="C97" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3026,28 +3044,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3193,10 +3211,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="12" t="s">
+      <c r="J104" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3240,28 +3258,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="12">
+      <c r="A106" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="12">
+      <c r="C106" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3286,28 +3304,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="12">
+      <c r="C108" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="12">
+      <c r="D108" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="12">
+      <c r="I108" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3395,10 +3413,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="12" t="s">
+      <c r="J111" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3442,28 +3460,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="12">
+      <c r="A113" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="12">
+      <c r="C113" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3488,28 +3506,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="12">
+      <c r="B115" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="12">
+      <c r="C115" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="12">
+      <c r="D115" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="12">
+      <c r="E115" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="12">
+      <c r="F115" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="12">
+      <c r="G115" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="12">
+      <c r="H115" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="12">
+      <c r="I115" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3626,10 +3644,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="12" t="s">
+      <c r="J119" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3673,28 +3691,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="12">
+      <c r="A121" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="12">
+      <c r="C121" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3719,28 +3737,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="12">
+      <c r="C123" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="12">
+      <c r="D123" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="12">
+      <c r="I123" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3799,10 +3817,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="12" t="s">
+      <c r="J125" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3846,28 +3864,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="12">
+      <c r="A127" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="12">
+      <c r="B127" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="12">
+      <c r="C127" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="12">
+      <c r="E127" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="12">
+      <c r="F127" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="12">
+      <c r="H127" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3892,28 +3910,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="12">
+      <c r="B129" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="12">
+      <c r="C129" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="12">
+      <c r="D129" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="12">
+      <c r="E129" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="12">
+      <c r="F129" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="12">
+      <c r="G129" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="12">
+      <c r="H129" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="12">
+      <c r="I129" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4059,10 +4077,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="12" t="s">
+      <c r="J134" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4106,28 +4124,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="12">
+      <c r="A136" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="12">
+      <c r="C136" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4152,28 +4170,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="12">
+      <c r="I138" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4366,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4395,28 +4413,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4459,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4579,10 +4597,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="12" t="s">
+      <c r="J152" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4626,28 +4644,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="12">
+      <c r="A154" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="12">
+      <c r="C154" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4672,28 +4690,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="12">
+      <c r="C156" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="12">
+      <c r="D156" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="12">
+      <c r="I156" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4781,10 +4799,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="12" t="s">
+      <c r="J159" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4828,28 +4846,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="12">
+      <c r="A161" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="12">
+      <c r="C161" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4874,28 +4892,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="12">
+      <c r="C163" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="12">
+      <c r="D163" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="12">
+      <c r="I163" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5041,10 +5059,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5088,28 +5106,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5134,28 +5152,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5272,10 +5290,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12" t="s">
+      <c r="J176" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5319,28 +5337,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="12">
+      <c r="C178" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5365,28 +5383,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5445,10 +5463,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5492,28 +5510,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5538,28 +5556,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5618,10 +5636,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5665,28 +5683,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5711,28 +5729,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5878,10 +5896,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="12" t="s">
+      <c r="J197" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5925,28 +5943,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="12">
+      <c r="A199" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="12">
+      <c r="C199" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5971,28 +5989,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="12">
+      <c r="B201" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="12">
+      <c r="C201" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="12">
+      <c r="D201" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="12">
+      <c r="E201" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="12">
+      <c r="F201" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="12">
+      <c r="G201" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="12">
+      <c r="H201" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="12">
+      <c r="I201" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6051,10 +6069,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="12" t="s">
+      <c r="J203" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6098,28 +6116,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="12">
+      <c r="A205" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="12">
+      <c r="C205" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6144,28 +6162,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="12">
+      <c r="C207" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="12">
+      <c r="D207" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="12">
+      <c r="I207" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6253,10 +6271,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6300,28 +6318,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6346,28 +6364,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6426,10 +6444,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="12" t="s">
+      <c r="J216" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6473,28 +6491,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="12">
+      <c r="A218" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="12">
+      <c r="C218" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6519,28 +6537,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="12">
+      <c r="C220" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="12">
+      <c r="D220" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="12">
+      <c r="I220" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6599,10 +6617,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="12" t="s">
+      <c r="J222" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6646,28 +6664,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="12">
+      <c r="A224" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="12">
+      <c r="C224" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6692,28 +6710,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="12">
+      <c r="C226" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="12">
+      <c r="D226" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="12">
+      <c r="I226" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6801,10 +6819,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="12" t="s">
+      <c r="J229" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6848,28 +6866,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="12">
+      <c r="A231" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="12">
+      <c r="B231" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="12">
+      <c r="C231" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="12">
+      <c r="E231" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="12">
+      <c r="F231" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="12">
+      <c r="G231" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="12">
+      <c r="H231" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6894,28 +6912,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="12">
+      <c r="C233" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="12">
+      <c r="D233" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="12">
+      <c r="I233" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6974,10 +6992,10 @@
       <c r="I235">
         <f>((C235-C234)^2+(D235- D234)^2)^.5</f>
       </c>
-      <c r="J235" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K235" s="12" t="s">
+      <c r="J235" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K235" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L235" t="n">
@@ -7021,28 +7039,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="s" s="12">
+      <c r="A237" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C237" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D237" t="s" s="12">
+      <c r="C237" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D237" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7067,28 +7085,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C239" t="s" s="12">
+      <c r="C239" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D239" t="s" s="12">
+      <c r="D239" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I239" t="s" s="12">
+      <c r="I239" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7176,10 +7194,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="12" t="s">
+      <c r="J242" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7223,28 +7241,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="12">
+      <c r="A244" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="12">
+      <c r="C244" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7269,28 +7287,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="12">
+      <c r="B246" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="12">
+      <c r="C246" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="12">
+      <c r="D246" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="12">
+      <c r="E246" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="12">
+      <c r="F246" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="12">
+      <c r="G246" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="12">
+      <c r="H246" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="12">
+      <c r="I246" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7378,10 +7396,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="12" t="s">
+      <c r="J249" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7425,28 +7443,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="12">
+      <c r="A251" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="12">
+      <c r="C251" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7471,28 +7489,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="12">
+      <c r="B253" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="12">
+      <c r="C253" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="12">
+      <c r="D253" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="12">
+      <c r="E253" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="12">
+      <c r="F253" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="12">
+      <c r="G253" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="12">
+      <c r="H253" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="12">
+      <c r="I253" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7551,10 +7569,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="12" t="s">
+      <c r="J255" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7598,28 +7616,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="12">
+      <c r="A257" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="12">
+      <c r="C257" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7644,28 +7662,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="12">
+      <c r="C259" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="12">
+      <c r="D259" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="12">
+      <c r="I259" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7724,10 +7742,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="12" t="s">
+      <c r="J261" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7771,28 +7789,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="12">
+      <c r="A263" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="12">
+      <c r="B263" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="12">
+      <c r="C263" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="12">
+      <c r="E263" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="12">
+      <c r="F263" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="12">
+      <c r="G263" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="12">
+      <c r="H263" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7817,28 +7835,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="12">
+      <c r="C265" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="12">
+      <c r="D265" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="12">
+      <c r="I265" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7897,10 +7915,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="12" t="s">
+      <c r="J267" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7944,28 +7962,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="12">
+      <c r="A269" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="12">
+      <c r="C269" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="12">
+      <c r="E269" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="12">
+      <c r="F269" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="12">
+      <c r="G269" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="12">
+      <c r="H269" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7990,28 +8008,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="12">
+      <c r="C271" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="12">
+      <c r="D271" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="12">
+      <c r="I271" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8070,10 +8088,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="12" t="s">
+      <c r="J273" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8117,28 +8135,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="12">
+      <c r="A275" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="12">
+      <c r="B275" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="12">
+      <c r="C275" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="12">
+      <c r="E275" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="12">
+      <c r="F275" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="12">
+      <c r="G275" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="12">
+      <c r="H275" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8163,28 +8181,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="12">
+      <c r="B277" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="12">
+      <c r="C277" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="12">
+      <c r="D277" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="12">
+      <c r="E277" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="12">
+      <c r="F277" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="12">
+      <c r="G277" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="12">
+      <c r="H277" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="12">
+      <c r="I277" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8243,10 +8261,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="12" t="s">
+      <c r="J279" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8290,28 +8308,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="12">
+      <c r="A281" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="12">
+      <c r="B281" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="12">
+      <c r="C281" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="12">
+      <c r="E281" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="12">
+      <c r="F281" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="12">
+      <c r="G281" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="12">
+      <c r="H281" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8336,28 +8354,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="12">
+      <c r="B283" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="12">
+      <c r="C283" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="12">
+      <c r="D283" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="12">
+      <c r="E283" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="12">
+      <c r="F283" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="12">
+      <c r="G283" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="12">
+      <c r="H283" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="12">
+      <c r="I283" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8416,10 +8434,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="12" t="s">
+      <c r="J285" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8463,28 +8481,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="12">
+      <c r="A287" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="12">
+      <c r="B287" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="12">
+      <c r="C287" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="12">
+      <c r="E287" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="12">
+      <c r="F287" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="12">
+      <c r="G287" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="12">
+      <c r="H287" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8509,28 +8527,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="12">
+      <c r="B289" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="12">
+      <c r="C289" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="12">
+      <c r="D289" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="12">
+      <c r="E289" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="12">
+      <c r="F289" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="12">
+      <c r="G289" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="12">
+      <c r="H289" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="12">
+      <c r="I289" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8589,10 +8607,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="12" t="s">
+      <c r="J291" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8636,28 +8654,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="12">
+      <c r="A293" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="12">
+      <c r="B293" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="12">
+      <c r="C293" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="12">
+      <c r="E293" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="12">
+      <c r="F293" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="12">
+      <c r="G293" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="12">
+      <c r="H293" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8682,28 +8700,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="12">
+      <c r="B295" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="12">
+      <c r="C295" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="12">
+      <c r="D295" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="12">
+      <c r="E295" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="12">
+      <c r="F295" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="12">
+      <c r="G295" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="12">
+      <c r="H295" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="12">
+      <c r="I295" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8762,10 +8780,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="12" t="s">
+      <c r="J297" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8809,28 +8827,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="12">
+      <c r="A299" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="12">
+      <c r="B299" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="12">
+      <c r="C299" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="12">
+      <c r="E299" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="12">
+      <c r="F299" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="12">
+      <c r="G299" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="12">
+      <c r="H299" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8855,28 +8873,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="12">
+      <c r="B301" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="12">
+      <c r="C301" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="12">
+      <c r="D301" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="12">
+      <c r="E301" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="12">
+      <c r="F301" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="12">
+      <c r="G301" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="12">
+      <c r="H301" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="12">
+      <c r="I301" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8935,10 +8953,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="12" t="s">
+      <c r="J303" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8982,28 +9000,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="12">
+      <c r="A305" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="12">
+      <c r="B305" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="12">
+      <c r="C305" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="12">
+      <c r="E305" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="12">
+      <c r="F305" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="12">
+      <c r="G305" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="12">
+      <c r="H305" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9028,28 +9046,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="12">
+      <c r="B307" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="12">
+      <c r="C307" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="12">
+      <c r="D307" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="12">
+      <c r="E307" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="12">
+      <c r="F307" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="12">
+      <c r="G307" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="12">
+      <c r="H307" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="12">
+      <c r="I307" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9108,10 +9126,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="12" t="s">
+      <c r="J309" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9155,28 +9173,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="12">
+      <c r="A311" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="12">
+      <c r="B311" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="12">
+      <c r="C311" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="12">
+      <c r="E311" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="12">
+      <c r="F311" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="12">
+      <c r="G311" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="12">
+      <c r="H311" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9201,28 +9219,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="12">
+      <c r="C313" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="12">
+      <c r="D313" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="12">
+      <c r="I313" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9281,10 +9299,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="12" t="s">
+      <c r="J315" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9328,28 +9346,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="12">
+      <c r="A317" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="12">
+      <c r="B317" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="12">
+      <c r="C317" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="12">
+      <c r="E317" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="12">
+      <c r="F317" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="12">
+      <c r="G317" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="12">
+      <c r="H317" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9374,28 +9392,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="12">
+      <c r="C319" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="12">
+      <c r="D319" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="12">
+      <c r="I319" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9454,10 +9472,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="12" t="s">
+      <c r="J321" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9501,28 +9519,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="12">
+      <c r="A323" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="12">
+      <c r="B323" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="12">
+      <c r="C323" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="12">
+      <c r="E323" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="12">
+      <c r="F323" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="12">
+      <c r="G323" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="12">
+      <c r="H323" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9547,28 +9565,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="12">
+      <c r="C325" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="12">
+      <c r="D325" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="12">
+      <c r="I325" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9627,10 +9645,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="12" t="s">
+      <c r="J327" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9674,28 +9692,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="12">
+      <c r="A329" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="12">
+      <c r="B329" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="12">
+      <c r="C329" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="12">
+      <c r="E329" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="12">
+      <c r="F329" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="12">
+      <c r="G329" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="12">
+      <c r="H329" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9720,28 +9738,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="12">
+      <c r="C331" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="12">
+      <c r="D331" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="12">
+      <c r="I331" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9800,10 +9818,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="12" t="s">
+      <c r="J333" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9847,28 +9865,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="12">
+      <c r="A335" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="12">
+      <c r="B335" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="12">
+      <c r="C335" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="12">
+      <c r="E335" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="12">
+      <c r="F335" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="12">
+      <c r="G335" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="12">
+      <c r="H335" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9893,28 +9911,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="12">
+      <c r="C337" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="12">
+      <c r="D337" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="12">
+      <c r="I337" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9973,10 +9991,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="12" t="s">
+      <c r="J339" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -10020,28 +10038,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="12">
+      <c r="A341" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="12">
+      <c r="B341" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="12">
+      <c r="C341" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="12">
+      <c r="E341" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="12">
+      <c r="F341" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="12">
+      <c r="G341" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="12">
+      <c r="H341" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10066,28 +10084,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="12">
+      <c r="B343" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="12">
+      <c r="C343" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="12">
+      <c r="D343" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="12">
+      <c r="E343" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="12">
+      <c r="F343" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="12">
+      <c r="G343" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="12">
+      <c r="H343" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="12">
+      <c r="I343" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10146,10 +10164,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="12" t="s">
+      <c r="J345" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10193,28 +10211,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="12">
+      <c r="A347" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="12">
+      <c r="B347" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="12">
+      <c r="C347" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="12">
+      <c r="E347" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="12">
+      <c r="F347" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="12">
+      <c r="G347" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="12">
+      <c r="H347" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10239,28 +10257,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="12">
+      <c r="B349" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="12">
+      <c r="C349" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="12">
+      <c r="D349" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="12">
+      <c r="E349" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="12">
+      <c r="F349" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="12">
+      <c r="G349" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="12">
+      <c r="H349" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="12">
+      <c r="I349" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10319,10 +10337,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="12" t="s">
+      <c r="J351" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
